--- a/xlsx/出版商_intext.xlsx
+++ b/xlsx/出版商_intext.xlsx
@@ -29,7 +29,7 @@
     <t>书籍</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_出版商</t>
+    <t>政策_政策_维基百科_出版商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%A5%E7%BA%B8</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E5%BA%97</t>
   </si>
   <si>
-    <t>書店</t>
+    <t>书店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E6%88%BF</t>
   </si>
   <si>
-    <t>書房</t>
+    <t>书房</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E7%A4%BE</t>
